--- a/medicine/Psychotrope/Org_28611/Org_28611.xlsx
+++ b/medicine/Psychotrope/Org_28611/Org_28611.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Org 28611 ( SCH-900,111 ) est un médicament développé par Organon BioSciences qui agit comme un puissant agoniste complet des récepteurs cannabinoïdes au niveau des récepteurs CB1 et CB2. Il a été développé dans le but de trouver un agoniste cannabinoïde soluble dans l'eau adapté à une utilisation intraveineuse comme analgésique[1],  et bien qu'il ait atteint cet objectif et ait progressé jusqu'aux essais cliniques de phase II chez l'homme à la fois comme sédatif et comme analgésique, les résultats par rapport aux médicaments de comparaison (midazolam et morphine respectivement) n'étaient pas particulièrement favorables lors des tests initiaux[2],[3].
+Org 28611 ( SCH-900,111 ) est un médicament développé par Organon BioSciences qui agit comme un puissant agoniste complet des récepteurs cannabinoïdes au niveau des récepteurs CB1 et CB2. Il a été développé dans le but de trouver un agoniste cannabinoïde soluble dans l'eau adapté à une utilisation intraveineuse comme analgésique,  et bien qu'il ait atteint cet objectif et ait progressé jusqu'aux essais cliniques de phase II chez l'homme à la fois comme sédatif et comme analgésique, les résultats par rapport aux médicaments de comparaison (midazolam et morphine respectivement) n'étaient pas particulièrement favorables lors des tests initiaux,.
 </t>
         </is>
       </c>
